--- a/alarm_rename.xlsx
+++ b/alarm_rename.xlsx
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/alarm_rename.xlsx
+++ b/alarm_rename.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7095cc4eb6d386e0/Desktop/Alarms Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A07BB8BF-9384-4330-9CAC-3D417C95C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C928ADCE-53D8-41C5-9569-FAD4C36B5ECE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A07BB8BF-9384-4330-9CAC-3D417C95C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EBC978-F520-488C-A12B-5597BF499BA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0DC12C0-51BE-4482-8D5E-D278D82A451C}"/>
   </bookViews>
@@ -921,7 +921,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}" name="ShortAlarm" displayName="ShortAlarm" ref="A1:C193" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C193" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{26BD7867-3E40-463E-B6ED-4560A82D6BBF}" name="Alarm Text" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7EBA5675-133D-4AEC-90B7-F43092420BF5}" name="Renamed Alarm" dataDxfId="1"/>
@@ -1251,7 +1250,7 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/alarm_rename.xlsx
+++ b/alarm_rename.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7095cc4eb6d386e0/Desktop/Alarms Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{A07BB8BF-9384-4330-9CAC-3D417C95C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EBC978-F520-488C-A12B-5597BF499BA1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A07BB8BF-9384-4330-9CAC-3D417C95C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE82153-8545-4089-97B4-9E5B5BDA84B4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0DC12C0-51BE-4482-8D5E-D278D82A451C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$193</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="214">
   <si>
     <t>Alarm crtiticality</t>
   </si>
@@ -675,6 +678,9 @@
   </si>
   <si>
     <t>Renamed Alarm</t>
+  </si>
+  <si>
+    <t>ACOC Door</t>
   </si>
 </sst>
 </file>
@@ -921,6 +927,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}" name="ShortAlarm" displayName="ShortAlarm" ref="A1:C193" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C193" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{26BD7867-3E40-463E-B6ED-4560A82D6BBF}" name="Alarm Text" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7EBA5675-133D-4AEC-90B7-F43092420BF5}" name="Renamed Alarm" dataDxfId="1"/>
@@ -1250,7 +1257,7 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+      <selection activeCell="B70" sqref="B70:B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,7 +2030,7 @@
         <v>81</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -2077,8 +2084,8 @@
       <c r="A75" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B75" t="s">
-        <v>79</v>
+      <c r="B75" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -2100,7 +2107,7 @@
         <v>88</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -2144,7 +2151,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -2188,7 +2195,7 @@
         <v>96</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -3244,7 +3251,7 @@
         <v>199</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
@@ -3320,8 +3327,8 @@
       <c r="A188" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>79</v>
+      <c r="B188" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
@@ -3354,7 +3361,7 @@
         <v>209</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>

--- a/alarm_rename.xlsx
+++ b/alarm_rename.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7095cc4eb6d386e0/Desktop/Alarms Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{A07BB8BF-9384-4330-9CAC-3D417C95C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE82153-8545-4089-97B4-9E5B5BDA84B4}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{A07BB8BF-9384-4330-9CAC-3D417C95C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578C773E-235C-433D-B7EC-754D9D2C2312}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0DC12C0-51BE-4482-8D5E-D278D82A451C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="230">
   <si>
     <t>Alarm crtiticality</t>
   </si>
@@ -681,6 +681,54 @@
   </si>
   <si>
     <t>ACOC Door</t>
+  </si>
+  <si>
+    <t>ACOC DOOR OPEN;Default System Time</t>
+  </si>
+  <si>
+    <t>RECTFIER MAJOR ALARM;Default System Time</t>
+  </si>
+  <si>
+    <t>RECTFIER MINOR ALARM;Default System Time</t>
+  </si>
+  <si>
+    <t>SHELTER HIGH TEMRATURE</t>
+  </si>
+  <si>
+    <t>DOOR ACOC</t>
+  </si>
+  <si>
+    <t>ACOC INT. FAN FALURE</t>
+  </si>
+  <si>
+    <t>ACOC HT ALARM;Default System Time</t>
+  </si>
+  <si>
+    <t>FIRE ALARM;Default System Time</t>
+  </si>
+  <si>
+    <t>ACOC INT FAN FAIL;Default System Time</t>
+  </si>
+  <si>
+    <t>SHELTER DOOR 3</t>
+  </si>
+  <si>
+    <t>SHELTER DOOR 1</t>
+  </si>
+  <si>
+    <t>SHELTER DOOR 2</t>
+  </si>
+  <si>
+    <t>door alrm</t>
+  </si>
+  <si>
+    <t>RECTFIRE MAJOR</t>
+  </si>
+  <si>
+    <t>SHELTER HIGH TEMP;Default System Time</t>
+  </si>
+  <si>
+    <t>RECTFIRE MAJOR;Default System Time</t>
   </si>
 </sst>
 </file>
@@ -712,7 +760,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -808,11 +856,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,6 +908,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,8 +1000,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}" name="ShortAlarm" displayName="ShortAlarm" ref="A1:C193" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C193" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}" name="ShortAlarm" displayName="ShortAlarm" ref="A1:C208" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C208" xr:uid="{B0426D88-2664-419A-8274-BC1B5AF433EE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{26BD7867-3E40-463E-B6ED-4560A82D6BBF}" name="Alarm Text" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7EBA5675-133D-4AEC-90B7-F43092420BF5}" name="Renamed Alarm" dataDxfId="1"/>
@@ -1254,11 +1328,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F0543-3FEF-4EFE-A6E2-C938E5473191}">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B191"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3378,9 +3450,181 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="6"/>
-      <c r="B193" s="5"/>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B198" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" t="s">
+        <v>79</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B200" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B201" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
